--- a/data/pca/factorExposure/factorExposure_2015-06-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01955548523696216</v>
+        <v>0.009582016981976384</v>
       </c>
       <c r="C2">
-        <v>-0.01837668802956383</v>
+        <v>-0.05032443746889807</v>
       </c>
       <c r="D2">
-        <v>-0.1067532541927819</v>
+        <v>0.1305785928309638</v>
       </c>
       <c r="E2">
-        <v>0.008425425117339317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02156062665935464</v>
+      </c>
+      <c r="F2">
+        <v>0.02949358575048292</v>
+      </c>
+      <c r="G2">
+        <v>0.1283574501170737</v>
+      </c>
+      <c r="H2">
+        <v>-0.04245269396741021</v>
+      </c>
+      <c r="I2">
+        <v>0.142016598605684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.0001351636717123205</v>
+        <v>-0.0003434151213162814</v>
       </c>
       <c r="C3">
-        <v>-0.001735476213654183</v>
+        <v>-0.001217829859007951</v>
       </c>
       <c r="D3">
-        <v>0.001226359514849198</v>
+        <v>0.001011841637319395</v>
       </c>
       <c r="E3">
-        <v>-0.002293168744782571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.003807834146194361</v>
+      </c>
+      <c r="F3">
+        <v>-0.003597819920962552</v>
+      </c>
+      <c r="G3">
+        <v>0.002833644698844428</v>
+      </c>
+      <c r="H3">
+        <v>0.009867771939564314</v>
+      </c>
+      <c r="I3">
+        <v>-0.001406019166926286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04416051523091306</v>
+        <v>0.01921048047186355</v>
       </c>
       <c r="C4">
-        <v>-0.07111640535279685</v>
+        <v>-0.1037936373368499</v>
       </c>
       <c r="D4">
-        <v>-0.1310250386199895</v>
+        <v>0.1355470256282817</v>
       </c>
       <c r="E4">
-        <v>0.08201958833589908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.007394011655473863</v>
+      </c>
+      <c r="F4">
+        <v>0.09254150849525448</v>
+      </c>
+      <c r="G4">
+        <v>0.008984680211011608</v>
+      </c>
+      <c r="H4">
+        <v>-0.05298987788917989</v>
+      </c>
+      <c r="I4">
+        <v>-0.0654982731094899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02166829678544159</v>
+        <v>0.02699533390548844</v>
       </c>
       <c r="C6">
-        <v>-0.01197267843051944</v>
+        <v>-0.03307581264224757</v>
       </c>
       <c r="D6">
-        <v>-0.1377004578937793</v>
+        <v>0.1232041503622261</v>
       </c>
       <c r="E6">
-        <v>0.03527311642766012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.05700534443792264</v>
+      </c>
+      <c r="F6">
+        <v>0.04676287365819307</v>
+      </c>
+      <c r="G6">
+        <v>0.006096722777199331</v>
+      </c>
+      <c r="H6">
+        <v>-0.05271546132696505</v>
+      </c>
+      <c r="I6">
+        <v>-0.03044196987677159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.003016188318866043</v>
+        <v>0.008732408917736837</v>
       </c>
       <c r="C7">
-        <v>-0.02279804599861208</v>
+        <v>-0.03412976457575078</v>
       </c>
       <c r="D7">
-        <v>-0.1125043134881504</v>
+        <v>0.09809313207574928</v>
       </c>
       <c r="E7">
-        <v>0.002703894857091376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05193725520714765</v>
+      </c>
+      <c r="F7">
+        <v>0.009246479736033139</v>
+      </c>
+      <c r="G7">
+        <v>0.006032824022572392</v>
+      </c>
+      <c r="H7">
+        <v>-0.07740023745923962</v>
+      </c>
+      <c r="I7">
+        <v>-0.001993551258946593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.005450687315375341</v>
+        <v>-0.00826804513136971</v>
       </c>
       <c r="C8">
-        <v>-0.02440921566074321</v>
+        <v>-0.03205582443388485</v>
       </c>
       <c r="D8">
-        <v>-0.0807095232486302</v>
+        <v>0.07865145915035386</v>
       </c>
       <c r="E8">
-        <v>0.02527073772287408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03639962454160164</v>
+      </c>
+      <c r="F8">
+        <v>0.05227490391824008</v>
+      </c>
+      <c r="G8">
+        <v>0.06120568033430286</v>
+      </c>
+      <c r="H8">
+        <v>-0.0001079985055250075</v>
+      </c>
+      <c r="I8">
+        <v>-0.01040293929333438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03651419246714793</v>
+        <v>0.01329048892568064</v>
       </c>
       <c r="C9">
-        <v>-0.05996917960399235</v>
+        <v>-0.08554816565069001</v>
       </c>
       <c r="D9">
-        <v>-0.1310001078110872</v>
+        <v>0.1167220744083543</v>
       </c>
       <c r="E9">
-        <v>0.06623209330262717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.009323408890225629</v>
+      </c>
+      <c r="F9">
+        <v>0.06127320344470171</v>
+      </c>
+      <c r="G9">
+        <v>-0.005850468365137016</v>
+      </c>
+      <c r="H9">
+        <v>-0.06750723012829069</v>
+      </c>
+      <c r="I9">
+        <v>-0.03784052458908062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1683437999101215</v>
+        <v>0.238567665561445</v>
       </c>
       <c r="C10">
-        <v>0.1736361229293648</v>
+        <v>0.09662513150425714</v>
       </c>
       <c r="D10">
-        <v>-0.005899296929452218</v>
+        <v>-0.004371689052065796</v>
       </c>
       <c r="E10">
-        <v>0.04547747062613711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01137949229841027</v>
+      </c>
+      <c r="F10">
+        <v>0.04444196677201633</v>
+      </c>
+      <c r="G10">
+        <v>-0.00121845072151349</v>
+      </c>
+      <c r="H10">
+        <v>0.05541104963380379</v>
+      </c>
+      <c r="I10">
+        <v>0.008557360927160043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01941024485319199</v>
+        <v>0.009951331098857612</v>
       </c>
       <c r="C11">
-        <v>-0.04012971412899563</v>
+        <v>-0.0532362005021869</v>
       </c>
       <c r="D11">
-        <v>-0.04964371980994745</v>
+        <v>0.04379374817822109</v>
       </c>
       <c r="E11">
-        <v>-0.01619172535144958</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01994757494815081</v>
+      </c>
+      <c r="F11">
+        <v>-0.01244438228015241</v>
+      </c>
+      <c r="G11">
+        <v>0.001098677752625383</v>
+      </c>
+      <c r="H11">
+        <v>-0.04700194274112689</v>
+      </c>
+      <c r="I11">
+        <v>-0.05751355707909717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02030159084499438</v>
+        <v>0.0103872264140726</v>
       </c>
       <c r="C12">
-        <v>-0.03934329541842563</v>
+        <v>-0.04840068049034378</v>
       </c>
       <c r="D12">
-        <v>-0.0615802888559278</v>
+        <v>0.04867346258261837</v>
       </c>
       <c r="E12">
-        <v>-0.00567245440128369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01552136095559011</v>
+      </c>
+      <c r="F12">
+        <v>-0.01572729809728249</v>
+      </c>
+      <c r="G12">
+        <v>-0.01347287115233079</v>
+      </c>
+      <c r="H12">
+        <v>-0.07236163769734927</v>
+      </c>
+      <c r="I12">
+        <v>-0.02337994369946081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.001997402377617349</v>
+        <v>-0.004049271113409505</v>
       </c>
       <c r="C13">
-        <v>-0.02222102861095424</v>
+        <v>-0.04281607831462369</v>
       </c>
       <c r="D13">
-        <v>-0.1452659362067818</v>
+        <v>0.1485699840825591</v>
       </c>
       <c r="E13">
-        <v>0.03446385976647479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0373989436851461</v>
+      </c>
+      <c r="F13">
+        <v>0.03386867001379654</v>
+      </c>
+      <c r="G13">
+        <v>0.03024573075276141</v>
+      </c>
+      <c r="H13">
+        <v>-0.05972954348834813</v>
+      </c>
+      <c r="I13">
+        <v>0.08174855977322862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.005461394166056138</v>
+        <v>0.0003010577927211392</v>
       </c>
       <c r="C14">
-        <v>-0.01698558228777136</v>
+        <v>-0.02778810991515663</v>
       </c>
       <c r="D14">
-        <v>-0.09887450258914385</v>
+        <v>0.1012578672690135</v>
       </c>
       <c r="E14">
-        <v>0.009595657331292168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.04881218071798757</v>
+      </c>
+      <c r="F14">
+        <v>0.03478501127169174</v>
+      </c>
+      <c r="G14">
+        <v>0.03487227600677679</v>
+      </c>
+      <c r="H14">
+        <v>-0.1234268012637763</v>
+      </c>
+      <c r="I14">
+        <v>0.001242855843294663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002407667153524724</v>
+        <v>-0.001653879945664985</v>
       </c>
       <c r="C15">
-        <v>-0.01033871864164332</v>
+        <v>-0.02426856101405573</v>
       </c>
       <c r="D15">
-        <v>-0.02994961359916355</v>
+        <v>0.05920188285444272</v>
       </c>
       <c r="E15">
-        <v>-0.003768325622625475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.008633751642031839</v>
+      </c>
+      <c r="F15">
+        <v>0.006754786633364675</v>
+      </c>
+      <c r="G15">
+        <v>0.02299857583660258</v>
+      </c>
+      <c r="H15">
+        <v>-0.03109775112893882</v>
+      </c>
+      <c r="I15">
+        <v>-0.0206169054471186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01914064408877545</v>
+        <v>0.01034223020782703</v>
       </c>
       <c r="C16">
-        <v>-0.03663035375443979</v>
+        <v>-0.04787814185392335</v>
       </c>
       <c r="D16">
-        <v>-0.0547752432473608</v>
+        <v>0.04451167995654495</v>
       </c>
       <c r="E16">
-        <v>-0.008491985192861104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02140618580230103</v>
+      </c>
+      <c r="F16">
+        <v>-0.008768042421115148</v>
+      </c>
+      <c r="G16">
+        <v>-0.009893574721658572</v>
+      </c>
+      <c r="H16">
+        <v>-0.05215147527842396</v>
+      </c>
+      <c r="I16">
+        <v>-0.04854004427691209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.004364044521774521</v>
+        <v>0.0001861260822731254</v>
       </c>
       <c r="C19">
-        <v>-0.01793922378358332</v>
+        <v>-0.01702208114746162</v>
       </c>
       <c r="D19">
-        <v>-0.100622083702897</v>
+        <v>0.06406761328261468</v>
       </c>
       <c r="E19">
-        <v>0.04144291075189491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01144704053659621</v>
+      </c>
+      <c r="F19">
+        <v>0.01446978809824756</v>
+      </c>
+      <c r="G19">
+        <v>0.02045342616618036</v>
+      </c>
+      <c r="H19">
+        <v>-0.05839796243951825</v>
+      </c>
+      <c r="I19">
+        <v>0.03255058067973674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002628458629550729</v>
+        <v>0.005418910275711865</v>
       </c>
       <c r="C20">
-        <v>-0.02319156026128574</v>
+        <v>-0.03808492047434353</v>
       </c>
       <c r="D20">
-        <v>-0.08673383841290015</v>
+        <v>0.09418642282386529</v>
       </c>
       <c r="E20">
-        <v>0.03428225432759251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02169739651315017</v>
+      </c>
+      <c r="F20">
+        <v>0.02928420258889902</v>
+      </c>
+      <c r="G20">
+        <v>0.003090945394179068</v>
+      </c>
+      <c r="H20">
+        <v>-0.05806906566372202</v>
+      </c>
+      <c r="I20">
+        <v>-0.04839531535720458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.005278586985528449</v>
+        <v>0.004233522825127591</v>
       </c>
       <c r="C21">
-        <v>-0.02911712133657281</v>
+        <v>-0.04133572546348552</v>
       </c>
       <c r="D21">
-        <v>-0.1655804189324003</v>
+        <v>0.1299133891558784</v>
       </c>
       <c r="E21">
-        <v>0.07116206704859676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02927751179193043</v>
+      </c>
+      <c r="F21">
+        <v>0.09349354124879213</v>
+      </c>
+      <c r="G21">
+        <v>0.05046167761688339</v>
+      </c>
+      <c r="H21">
+        <v>-0.1859696097804198</v>
+      </c>
+      <c r="I21">
+        <v>0.1343322104368454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001773512084814854</v>
+        <v>-0.008104227918182712</v>
       </c>
       <c r="C22">
-        <v>-0.06207859536061224</v>
+        <v>-0.08474928098520025</v>
       </c>
       <c r="D22">
-        <v>-0.2412392996712566</v>
+        <v>0.2656370846044105</v>
       </c>
       <c r="E22">
-        <v>-0.02048703346886611</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0515449600800986</v>
+      </c>
+      <c r="F22">
+        <v>0.02610552803828306</v>
+      </c>
+      <c r="G22">
+        <v>0.2858234512422826</v>
+      </c>
+      <c r="H22">
+        <v>0.4461266622861167</v>
+      </c>
+      <c r="I22">
+        <v>-0.08199131944251284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001476378736888477</v>
+        <v>-0.007752996465765407</v>
       </c>
       <c r="C23">
-        <v>-0.06255005179954629</v>
+        <v>-0.08579226169647615</v>
       </c>
       <c r="D23">
-        <v>-0.2406903257232418</v>
+        <v>0.2663685884160059</v>
       </c>
       <c r="E23">
-        <v>-0.02030160581289172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04841741852041705</v>
+      </c>
+      <c r="F23">
+        <v>0.02618770952778408</v>
+      </c>
+      <c r="G23">
+        <v>0.2856974589797461</v>
+      </c>
+      <c r="H23">
+        <v>0.4457609827526614</v>
+      </c>
+      <c r="I23">
+        <v>-0.08116697814291469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02452270050817871</v>
+        <v>0.009701323484513471</v>
       </c>
       <c r="C24">
-        <v>-0.05510267208583465</v>
+        <v>-0.06430375614810907</v>
       </c>
       <c r="D24">
-        <v>-0.06838262708689695</v>
+        <v>0.05127949739711929</v>
       </c>
       <c r="E24">
-        <v>-0.004058111414335366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02901369500442216</v>
+      </c>
+      <c r="F24">
+        <v>-0.004389490959834945</v>
+      </c>
+      <c r="G24">
+        <v>0.002939887629230241</v>
+      </c>
+      <c r="H24">
+        <v>-0.07526319680850126</v>
+      </c>
+      <c r="I24">
+        <v>-0.04215241383517317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02601876790615585</v>
+        <v>0.01404120993349456</v>
       </c>
       <c r="C25">
-        <v>-0.04684421887186568</v>
+        <v>-0.05906156183127097</v>
       </c>
       <c r="D25">
-        <v>-0.05994262346852517</v>
+        <v>0.04947011854852135</v>
       </c>
       <c r="E25">
-        <v>-0.0001303520383676031</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01389751496038426</v>
+      </c>
+      <c r="F25">
+        <v>-0.005975894739334277</v>
+      </c>
+      <c r="G25">
+        <v>-0.00540316290021922</v>
+      </c>
+      <c r="H25">
+        <v>-0.04186129882098436</v>
+      </c>
+      <c r="I25">
+        <v>-0.03765509842261466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.007700966431016843</v>
+        <v>0.01375524996985864</v>
       </c>
       <c r="C26">
-        <v>-0.01491866876697916</v>
+        <v>-0.02455406475730148</v>
       </c>
       <c r="D26">
-        <v>-0.08089019244364593</v>
+        <v>0.06496113626131327</v>
       </c>
       <c r="E26">
-        <v>0.01919890120665501</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04049106508766086</v>
+      </c>
+      <c r="F26">
+        <v>0.04312263066454498</v>
+      </c>
+      <c r="G26">
+        <v>0.02147158159287117</v>
+      </c>
+      <c r="H26">
+        <v>-0.09226381652710794</v>
+      </c>
+      <c r="I26">
+        <v>0.01475331753502178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2529316092922009</v>
+        <v>0.3186428875899537</v>
       </c>
       <c r="C28">
-        <v>0.2057558206027694</v>
+        <v>0.09464316772201105</v>
       </c>
       <c r="D28">
-        <v>-0.01787214729770521</v>
+        <v>-0.01286281673935121</v>
       </c>
       <c r="E28">
-        <v>0.06404668227234067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0517906530611228</v>
+      </c>
+      <c r="F28">
+        <v>0.04832109488138466</v>
+      </c>
+      <c r="G28">
+        <v>0.03786850900186663</v>
+      </c>
+      <c r="H28">
+        <v>0.01485015905954581</v>
+      </c>
+      <c r="I28">
+        <v>0.03434043154353138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002065488192617889</v>
+        <v>-0.0004893438105092028</v>
       </c>
       <c r="C29">
-        <v>-0.02094001080365622</v>
+        <v>-0.03183164936227767</v>
       </c>
       <c r="D29">
-        <v>-0.09796074163688925</v>
+        <v>0.1000405479018927</v>
       </c>
       <c r="E29">
-        <v>0.01464082759127885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05486255088932791</v>
+      </c>
+      <c r="F29">
+        <v>0.03757095775074832</v>
+      </c>
+      <c r="G29">
+        <v>0.02209344984180104</v>
+      </c>
+      <c r="H29">
+        <v>-0.1284460887186028</v>
+      </c>
+      <c r="I29">
+        <v>-0.01607800612563463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02233444548010829</v>
+        <v>0.01416774513809146</v>
       </c>
       <c r="C30">
-        <v>-0.05776785841691838</v>
+        <v>-0.08527555852404134</v>
       </c>
       <c r="D30">
-        <v>-0.1668909173508814</v>
+        <v>0.1553426469315632</v>
       </c>
       <c r="E30">
-        <v>0.02367059456685354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05249170676015111</v>
+      </c>
+      <c r="F30">
+        <v>0.03639203763455082</v>
+      </c>
+      <c r="G30">
+        <v>0.03596750551439189</v>
+      </c>
+      <c r="H30">
+        <v>-0.05455690607179384</v>
+      </c>
+      <c r="I30">
+        <v>-0.0533743391257701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03989831291452258</v>
+        <v>0.009713168337161428</v>
       </c>
       <c r="C31">
-        <v>-0.08400962561708591</v>
+        <v>-0.09232410998294698</v>
       </c>
       <c r="D31">
-        <v>-0.06778678832697163</v>
+        <v>0.04060800087858438</v>
       </c>
       <c r="E31">
-        <v>0.01300986256194183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01855235743905509</v>
+      </c>
+      <c r="F31">
+        <v>0.01585914531855859</v>
+      </c>
+      <c r="G31">
+        <v>0.01248298266452112</v>
+      </c>
+      <c r="H31">
+        <v>-0.04418287969490014</v>
+      </c>
+      <c r="I31">
+        <v>0.002328776403892202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01750049455001121</v>
+        <v>0.009483786665479619</v>
       </c>
       <c r="C32">
-        <v>-0.03148273616909263</v>
+        <v>-0.04490563184058087</v>
       </c>
       <c r="D32">
-        <v>-0.1019874660800657</v>
+        <v>0.1070058313742325</v>
       </c>
       <c r="E32">
-        <v>0.06693762637205543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.001367629853344394</v>
+      </c>
+      <c r="F32">
+        <v>0.05314580768559672</v>
+      </c>
+      <c r="G32">
+        <v>0.02724875509516726</v>
+      </c>
+      <c r="H32">
+        <v>-0.03870082907817566</v>
+      </c>
+      <c r="I32">
+        <v>0.06677188933983853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01039470533338262</v>
+        <v>0.006644783744207555</v>
       </c>
       <c r="C33">
-        <v>-0.03979474999623557</v>
+        <v>-0.05654651960659759</v>
       </c>
       <c r="D33">
-        <v>-0.1372376843991109</v>
+        <v>0.1218779657738355</v>
       </c>
       <c r="E33">
-        <v>0.03958451782095575</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02502816663720368</v>
+      </c>
+      <c r="F33">
+        <v>0.02827967409753368</v>
+      </c>
+      <c r="G33">
+        <v>0.01298157547184596</v>
+      </c>
+      <c r="H33">
+        <v>-0.06285792188702358</v>
+      </c>
+      <c r="I33">
+        <v>-0.01312392671359367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02240222728370208</v>
+        <v>0.00777108054401608</v>
       </c>
       <c r="C34">
-        <v>-0.0586385338455136</v>
+        <v>-0.06164751005347581</v>
       </c>
       <c r="D34">
-        <v>-0.0513714173697625</v>
+        <v>0.03110663899471349</v>
       </c>
       <c r="E34">
-        <v>-0.04702107332116064</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03002297833884198</v>
+      </c>
+      <c r="F34">
+        <v>-0.03865674624403215</v>
+      </c>
+      <c r="G34">
+        <v>-0.0004323981716158589</v>
+      </c>
+      <c r="H34">
+        <v>-0.05982420702683502</v>
+      </c>
+      <c r="I34">
+        <v>-0.02316793771594598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007117091120576548</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.008050422193888096</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02825566511450359</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.002856267740848525</v>
+      </c>
+      <c r="F35">
+        <v>0.01611038365103026</v>
+      </c>
+      <c r="G35">
+        <v>0.01233076909722687</v>
+      </c>
+      <c r="H35">
+        <v>-0.03696269982819757</v>
+      </c>
+      <c r="I35">
+        <v>-0.03823837232231921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006225961223635099</v>
+        <v>0.01168904635938099</v>
       </c>
       <c r="C36">
-        <v>-0.00557965996507033</v>
+        <v>-0.01809120418172608</v>
       </c>
       <c r="D36">
-        <v>-0.08716766163262034</v>
+        <v>0.07334406442918658</v>
       </c>
       <c r="E36">
-        <v>0.04282032745890414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02521533801357749</v>
+      </c>
+      <c r="F36">
+        <v>0.04864556277789976</v>
+      </c>
+      <c r="G36">
+        <v>0.01580026342693009</v>
+      </c>
+      <c r="H36">
+        <v>-0.06314619855050981</v>
+      </c>
+      <c r="I36">
+        <v>0.003136235497223141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.004906606264679489</v>
+        <v>0.0145872960524303</v>
       </c>
       <c r="C38">
-        <v>-0.006391644355696662</v>
+        <v>-0.01857954700529942</v>
       </c>
       <c r="D38">
-        <v>-0.08646559486844814</v>
+        <v>0.08822115342452043</v>
       </c>
       <c r="E38">
-        <v>0.01114173661824208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001457522633299202</v>
+      </c>
+      <c r="F38">
+        <v>0.00136415606417674</v>
+      </c>
+      <c r="G38">
+        <v>0.0325176947126221</v>
+      </c>
+      <c r="H38">
+        <v>-0.06056259781614321</v>
+      </c>
+      <c r="I38">
+        <v>-0.01696648591186102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01541168354881016</v>
+        <v>0.002791972909347341</v>
       </c>
       <c r="C39">
-        <v>-0.05604433747394369</v>
+        <v>-0.07353621988570502</v>
       </c>
       <c r="D39">
-        <v>-0.1141861749854671</v>
+        <v>0.09852986097737483</v>
       </c>
       <c r="E39">
-        <v>-0.01685021796265792</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05310414714616617</v>
+      </c>
+      <c r="F39">
+        <v>-0.004436834659643627</v>
+      </c>
+      <c r="G39">
+        <v>0.003599781827139028</v>
+      </c>
+      <c r="H39">
+        <v>-0.1031754026969796</v>
+      </c>
+      <c r="I39">
+        <v>-0.04069467097593365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0106284529940606</v>
+        <v>0.01199516994271125</v>
       </c>
       <c r="C40">
-        <v>-0.01662143561616523</v>
+        <v>-0.02852313842367954</v>
       </c>
       <c r="D40">
-        <v>-0.1220588996338889</v>
+        <v>0.09880626343633038</v>
       </c>
       <c r="E40">
-        <v>-0.02003058628292053</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04805089175757929</v>
+      </c>
+      <c r="F40">
+        <v>-0.02104402450904289</v>
+      </c>
+      <c r="G40">
+        <v>0.06739582508752151</v>
+      </c>
+      <c r="H40">
+        <v>-0.07134730719486387</v>
+      </c>
+      <c r="I40">
+        <v>0.08259063154965209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01103193759625585</v>
+        <v>0.01698199264354426</v>
       </c>
       <c r="C41">
-        <v>-0.003574195390745168</v>
+        <v>-0.01554919552879403</v>
       </c>
       <c r="D41">
-        <v>-0.04694572955708182</v>
+        <v>0.04398927201927492</v>
       </c>
       <c r="E41">
-        <v>0.03235603600643976</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.008722307650593406</v>
+      </c>
+      <c r="F41">
+        <v>0.02438530129168229</v>
+      </c>
+      <c r="G41">
+        <v>0.01971752346174094</v>
+      </c>
+      <c r="H41">
+        <v>-0.0398523369043016</v>
+      </c>
+      <c r="I41">
+        <v>-0.01881676953449988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.004119856433906466</v>
+        <v>0.01101401317635642</v>
       </c>
       <c r="C43">
-        <v>-0.003823370099537723</v>
+        <v>-0.01272097965461255</v>
       </c>
       <c r="D43">
-        <v>-0.05632517977499412</v>
+        <v>0.05090178013690888</v>
       </c>
       <c r="E43">
-        <v>0.02244964843287478</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.00774418573924819</v>
+      </c>
+      <c r="F43">
+        <v>0.02134164117899244</v>
+      </c>
+      <c r="G43">
+        <v>0.02187847838171905</v>
+      </c>
+      <c r="H43">
+        <v>-0.0549293888836439</v>
+      </c>
+      <c r="I43">
+        <v>-0.03324758677897047</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01634183976793766</v>
+        <v>0.01147700972324178</v>
       </c>
       <c r="C44">
-        <v>-0.02218810369239512</v>
+        <v>-0.0443189113697811</v>
       </c>
       <c r="D44">
-        <v>-0.1117184218613331</v>
+        <v>0.1118999416127832</v>
       </c>
       <c r="E44">
-        <v>0.04672732859906838</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03870791043301191</v>
+      </c>
+      <c r="F44">
+        <v>0.03641295868931797</v>
+      </c>
+      <c r="G44">
+        <v>0.03367287802585357</v>
+      </c>
+      <c r="H44">
+        <v>-0.050690335829563</v>
+      </c>
+      <c r="I44">
+        <v>-0.04170197937318959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.005520956545092281</v>
+        <v>-0.0002818446411678596</v>
       </c>
       <c r="C46">
-        <v>-0.02770127797327668</v>
+        <v>-0.03912527856661879</v>
       </c>
       <c r="D46">
-        <v>-0.09089488962089985</v>
+        <v>0.07932405430695226</v>
       </c>
       <c r="E46">
-        <v>0.01799939975824657</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04161273743775065</v>
+      </c>
+      <c r="F46">
+        <v>0.03330685320719637</v>
+      </c>
+      <c r="G46">
+        <v>0.03212681872166738</v>
+      </c>
+      <c r="H46">
+        <v>-0.1304476787010421</v>
+      </c>
+      <c r="I46">
+        <v>-0.0361646791999868</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08245116049927695</v>
+        <v>0.03619807913668211</v>
       </c>
       <c r="C47">
-        <v>-0.1054463783442093</v>
+        <v>-0.126526465846402</v>
       </c>
       <c r="D47">
-        <v>-0.05803122053824273</v>
+        <v>0.02737729977965465</v>
       </c>
       <c r="E47">
-        <v>0.02931666365120515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007297438744118274</v>
+      </c>
+      <c r="F47">
+        <v>-0.003181740905114089</v>
+      </c>
+      <c r="G47">
+        <v>-0.03033581676352326</v>
+      </c>
+      <c r="H47">
+        <v>-0.05977363255061176</v>
+      </c>
+      <c r="I47">
+        <v>0.0366985979649076</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007484840891293146</v>
+        <v>0.01273914796930575</v>
       </c>
       <c r="C48">
-        <v>-0.01482629711326597</v>
+        <v>-0.02787973190695694</v>
       </c>
       <c r="D48">
-        <v>-0.08980803764102539</v>
+        <v>0.07799804692212696</v>
       </c>
       <c r="E48">
-        <v>0.05580211318643944</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.01811897856451932</v>
+      </c>
+      <c r="F48">
+        <v>0.06007263096185438</v>
+      </c>
+      <c r="G48">
+        <v>0.03063857393633401</v>
+      </c>
+      <c r="H48">
+        <v>-0.1011187506169619</v>
+      </c>
+      <c r="I48">
+        <v>-0.012741335585209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03773774269532119</v>
+        <v>0.01561975810117977</v>
       </c>
       <c r="C50">
-        <v>-0.05924097438203753</v>
+        <v>-0.07481667717076396</v>
       </c>
       <c r="D50">
-        <v>-0.06390195212848922</v>
+        <v>0.04945592563964573</v>
       </c>
       <c r="E50">
-        <v>0.009462841267828977</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01134342907817822</v>
+      </c>
+      <c r="F50">
+        <v>0.01152576358586955</v>
+      </c>
+      <c r="G50">
+        <v>0.02493316161982654</v>
+      </c>
+      <c r="H50">
+        <v>-0.03100876208824177</v>
+      </c>
+      <c r="I50">
+        <v>0.005544427630824554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001458962180131912</v>
+        <v>-0.000942071432366297</v>
       </c>
       <c r="C51">
-        <v>-0.003796583213085123</v>
+        <v>-0.01582495774458944</v>
       </c>
       <c r="D51">
-        <v>-0.06274232213801262</v>
+        <v>0.05994407470226676</v>
       </c>
       <c r="E51">
-        <v>-0.001162656552199002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03856354661720444</v>
+      </c>
+      <c r="F51">
+        <v>0.0364284028348574</v>
+      </c>
+      <c r="G51">
+        <v>0.02956699468186275</v>
+      </c>
+      <c r="H51">
+        <v>-0.03782114482735607</v>
+      </c>
+      <c r="I51">
+        <v>0.02082451953514131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1089420700593282</v>
+        <v>0.05546074018484171</v>
       </c>
       <c r="C53">
-        <v>-0.1215143440370643</v>
+        <v>-0.1552235997710281</v>
       </c>
       <c r="D53">
-        <v>-0.01509941566286572</v>
+        <v>-0.01646920803983991</v>
       </c>
       <c r="E53">
-        <v>0.06232491768459032</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02901470800083972</v>
+      </c>
+      <c r="F53">
+        <v>0.05099820370095996</v>
+      </c>
+      <c r="G53">
+        <v>0.004052319562442723</v>
+      </c>
+      <c r="H53">
+        <v>-0.001597934724016048</v>
+      </c>
+      <c r="I53">
+        <v>7.237663234312472e-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0133469516883138</v>
+        <v>0.01032500787886189</v>
       </c>
       <c r="C54">
-        <v>-0.02059774941708829</v>
+        <v>-0.03846421457706694</v>
       </c>
       <c r="D54">
-        <v>-0.09621886027487617</v>
+        <v>0.08205437154768826</v>
       </c>
       <c r="E54">
-        <v>0.002761963256641935</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01492808811825524</v>
+      </c>
+      <c r="F54">
+        <v>0.001393866630597249</v>
+      </c>
+      <c r="G54">
+        <v>0.03586482189356602</v>
+      </c>
+      <c r="H54">
+        <v>-0.07940111491712139</v>
+      </c>
+      <c r="I54">
+        <v>-0.04195804461797103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09659884060881889</v>
+        <v>0.04276234776419571</v>
       </c>
       <c r="C55">
-        <v>-0.1030868711532131</v>
+        <v>-0.1289946006025728</v>
       </c>
       <c r="D55">
-        <v>-0.008400703356368382</v>
+        <v>-0.02949553954977319</v>
       </c>
       <c r="E55">
-        <v>0.01362705244246009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004230285445680871</v>
+      </c>
+      <c r="F55">
+        <v>0.01582790983511796</v>
+      </c>
+      <c r="G55">
+        <v>0.01414081011251701</v>
+      </c>
+      <c r="H55">
+        <v>-0.004868559156960038</v>
+      </c>
+      <c r="I55">
+        <v>0.02372694237236999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1348369043596365</v>
+        <v>0.05759101094124763</v>
       </c>
       <c r="C56">
-        <v>-0.1388148022617467</v>
+        <v>-0.1869997436978167</v>
       </c>
       <c r="D56">
-        <v>7.541386658796877e-05</v>
+        <v>-0.0302314737190104</v>
       </c>
       <c r="E56">
-        <v>0.01476343401525979</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0319384817858777</v>
+      </c>
+      <c r="F56">
+        <v>0.01848788088805701</v>
+      </c>
+      <c r="G56">
+        <v>0.05929636584198297</v>
+      </c>
+      <c r="H56">
+        <v>0.01070148007227906</v>
+      </c>
+      <c r="I56">
+        <v>0.02680396662357129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.0081416532464701</v>
+        <v>0.00587019325951192</v>
       </c>
       <c r="C58">
-        <v>-0.01194659986580384</v>
+        <v>-0.05061438684732348</v>
       </c>
       <c r="D58">
-        <v>-0.2140812955491087</v>
+        <v>0.2734763422894435</v>
       </c>
       <c r="E58">
-        <v>0.0792674347976977</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.009674015334124741</v>
+      </c>
+      <c r="F58">
+        <v>0.1102531645685803</v>
+      </c>
+      <c r="G58">
+        <v>0.113005790159207</v>
+      </c>
+      <c r="H58">
+        <v>0.112489214495115</v>
+      </c>
+      <c r="I58">
+        <v>-0.06301624672468505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1770478198816852</v>
+        <v>0.2528343668020231</v>
       </c>
       <c r="C59">
-        <v>0.1515041843336421</v>
+        <v>0.06586686868608346</v>
       </c>
       <c r="D59">
-        <v>-0.04347380205432227</v>
+        <v>0.05710708854604943</v>
       </c>
       <c r="E59">
-        <v>0.03630391554109102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02255760165648899</v>
+      </c>
+      <c r="F59">
+        <v>0.02506723181330614</v>
+      </c>
+      <c r="G59">
+        <v>0.009931437620816136</v>
+      </c>
+      <c r="H59">
+        <v>0.005078787477054302</v>
+      </c>
+      <c r="I59">
+        <v>0.07489166816878463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1894844741142479</v>
+        <v>0.1511715951183767</v>
       </c>
       <c r="C60">
-        <v>-0.09805907796188616</v>
+        <v>-0.1713240516251446</v>
       </c>
       <c r="D60">
-        <v>-0.2019312039955392</v>
+        <v>0.09145158003333362</v>
       </c>
       <c r="E60">
-        <v>-0.171759852387568</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1681107021449086</v>
+      </c>
+      <c r="F60">
+        <v>-0.2251299875378231</v>
+      </c>
+      <c r="G60">
+        <v>-0.2591542634008806</v>
+      </c>
+      <c r="H60">
+        <v>0.1771834584418021</v>
+      </c>
+      <c r="I60">
+        <v>0.09730162626316226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02622256527701224</v>
+        <v>0.01067879692112118</v>
       </c>
       <c r="C61">
-        <v>-0.05276691532598088</v>
+        <v>-0.07150296382167615</v>
       </c>
       <c r="D61">
-        <v>-0.1013457442494178</v>
+        <v>0.07868281528933699</v>
       </c>
       <c r="E61">
-        <v>-0.007444528093122827</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03627636091283495</v>
+      </c>
+      <c r="F61">
+        <v>-0.01519132511478049</v>
+      </c>
+      <c r="G61">
+        <v>-0.01144965947608392</v>
+      </c>
+      <c r="H61">
+        <v>-0.091765959828661</v>
+      </c>
+      <c r="I61">
+        <v>-0.02179541811191795</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.00767901099865701</v>
+        <v>0.008600028984605698</v>
       </c>
       <c r="C63">
-        <v>-0.02465225199781271</v>
+        <v>-0.03449282220331786</v>
       </c>
       <c r="D63">
-        <v>-0.09185671405916639</v>
+        <v>0.06774129261075378</v>
       </c>
       <c r="E63">
-        <v>0.0145473293496658</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05407877339924642</v>
+      </c>
+      <c r="F63">
+        <v>0.02849609418248706</v>
+      </c>
+      <c r="G63">
+        <v>0.02046748087842456</v>
+      </c>
+      <c r="H63">
+        <v>-0.0665773114039956</v>
+      </c>
+      <c r="I63">
+        <v>-0.0331200725467764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05712458922798075</v>
+        <v>0.01963160412948941</v>
       </c>
       <c r="C64">
-        <v>-0.08150798036456026</v>
+        <v>-0.1046556888039162</v>
       </c>
       <c r="D64">
-        <v>-0.03987026955886696</v>
+        <v>0.02431285256648473</v>
       </c>
       <c r="E64">
-        <v>0.01362999426467334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02930074031313958</v>
+      </c>
+      <c r="F64">
+        <v>0.01729718152364413</v>
+      </c>
+      <c r="G64">
+        <v>-0.0411397373957927</v>
+      </c>
+      <c r="H64">
+        <v>-0.1097181572065765</v>
+      </c>
+      <c r="I64">
+        <v>-0.03951553001987327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02519571726273107</v>
+        <v>0.02098160855997281</v>
       </c>
       <c r="C65">
-        <v>-0.01538395734982772</v>
+        <v>-0.04212392127958263</v>
       </c>
       <c r="D65">
-        <v>-0.1181785843378482</v>
+        <v>0.117736333187714</v>
       </c>
       <c r="E65">
-        <v>0.004542097131667164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04153641103667291</v>
+      </c>
+      <c r="F65">
+        <v>-0.007244494360907993</v>
+      </c>
+      <c r="G65">
+        <v>-0.02353364492422598</v>
+      </c>
+      <c r="H65">
+        <v>-0.03493472531558083</v>
+      </c>
+      <c r="I65">
+        <v>-0.06531573057036837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.01905598009422221</v>
+        <v>0.0001600727359751343</v>
       </c>
       <c r="C66">
-        <v>-0.06364677610254429</v>
+        <v>-0.09083268889090662</v>
       </c>
       <c r="D66">
-        <v>-0.1207279609461044</v>
+        <v>0.1236884739066955</v>
       </c>
       <c r="E66">
-        <v>-0.01936500212808339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03978942987160961</v>
+      </c>
+      <c r="F66">
+        <v>-0.01053048735650089</v>
+      </c>
+      <c r="G66">
+        <v>0.01714458685771797</v>
+      </c>
+      <c r="H66">
+        <v>-0.0611995348913805</v>
+      </c>
+      <c r="I66">
+        <v>-0.03124742493699428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02464348015817916</v>
+        <v>0.02514298636701613</v>
       </c>
       <c r="C67">
-        <v>-0.01944508658283325</v>
+        <v>-0.03094630840543405</v>
       </c>
       <c r="D67">
-        <v>-0.04225922445861437</v>
+        <v>0.04010591272888617</v>
       </c>
       <c r="E67">
-        <v>-0.01516713909209107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.008395661341016039</v>
+      </c>
+      <c r="F67">
+        <v>-0.02827442618378063</v>
+      </c>
+      <c r="G67">
+        <v>0.01707478253301738</v>
+      </c>
+      <c r="H67">
+        <v>-0.06420215192102498</v>
+      </c>
+      <c r="I67">
+        <v>-0.01939118339118382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2016954836746898</v>
+        <v>0.2735104819446825</v>
       </c>
       <c r="C68">
-        <v>0.1612162443009147</v>
+        <v>0.0695713661804092</v>
       </c>
       <c r="D68">
-        <v>-0.0349216124991016</v>
+        <v>0.02967134859479425</v>
       </c>
       <c r="E68">
-        <v>0.008606665603047708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004986857546630834</v>
+      </c>
+      <c r="F68">
+        <v>0.02742664209935932</v>
+      </c>
+      <c r="G68">
+        <v>0.05966913562871073</v>
+      </c>
+      <c r="H68">
+        <v>0.06489535654739487</v>
+      </c>
+      <c r="I68">
+        <v>0.04054549915133628</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05899149786983168</v>
+        <v>0.02093643991828318</v>
       </c>
       <c r="C69">
-        <v>-0.1135560679196112</v>
+        <v>-0.11710253274992</v>
       </c>
       <c r="D69">
-        <v>-0.08154068770723796</v>
+        <v>0.03385577793891033</v>
       </c>
       <c r="E69">
-        <v>0.01743681538015585</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007536678280714889</v>
+      </c>
+      <c r="F69">
+        <v>-0.004877190815254018</v>
+      </c>
+      <c r="G69">
+        <v>-0.01201538761696539</v>
+      </c>
+      <c r="H69">
+        <v>-0.04537395127962149</v>
+      </c>
+      <c r="I69">
+        <v>0.01524175231484637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2099528971439097</v>
+        <v>0.2745099464723118</v>
       </c>
       <c r="C71">
-        <v>0.1847959745247659</v>
+        <v>0.08426494384454543</v>
       </c>
       <c r="D71">
-        <v>-0.02179819335319713</v>
+        <v>0.01588083677898393</v>
       </c>
       <c r="E71">
-        <v>0.01549004773262916</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.002220061487121911</v>
+      </c>
+      <c r="F71">
+        <v>0.02172557510481129</v>
+      </c>
+      <c r="G71">
+        <v>0.03958068916068191</v>
+      </c>
+      <c r="H71">
+        <v>-0.0124637498989754</v>
+      </c>
+      <c r="I71">
+        <v>0.04129152687797673</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1067590513557491</v>
+        <v>0.05594648739920191</v>
       </c>
       <c r="C72">
-        <v>-0.07175070503552881</v>
+        <v>-0.1235122498747415</v>
       </c>
       <c r="D72">
-        <v>-0.1067078497717067</v>
+        <v>0.05836886649477793</v>
       </c>
       <c r="E72">
-        <v>-0.05020733990923929</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06974974336076047</v>
+      </c>
+      <c r="F72">
+        <v>-0.02983213332672875</v>
+      </c>
+      <c r="G72">
+        <v>-0.02426249777886194</v>
+      </c>
+      <c r="H72">
+        <v>-0.05305628539084441</v>
+      </c>
+      <c r="I72">
+        <v>-0.05814987054231363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.174696261910177</v>
+        <v>0.1413733159121232</v>
       </c>
       <c r="C73">
-        <v>-0.06239034218360889</v>
+        <v>-0.1444194108629011</v>
       </c>
       <c r="D73">
-        <v>-0.276548689679765</v>
+        <v>0.1073916822011759</v>
       </c>
       <c r="E73">
-        <v>-0.2621532864980466</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3010517538685293</v>
+      </c>
+      <c r="F73">
+        <v>-0.3247096719389302</v>
+      </c>
+      <c r="G73">
+        <v>-0.4285010872118419</v>
+      </c>
+      <c r="H73">
+        <v>0.07803677671372748</v>
+      </c>
+      <c r="I73">
+        <v>0.0421244232258471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.110358000412356</v>
+        <v>0.05061762145502267</v>
       </c>
       <c r="C74">
-        <v>-0.1130962969446886</v>
+        <v>-0.1465463293708153</v>
       </c>
       <c r="D74">
-        <v>0.02003510375533851</v>
+        <v>-0.04134049399853935</v>
       </c>
       <c r="E74">
-        <v>0.04232080013448471</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01144002840045047</v>
+      </c>
+      <c r="F74">
+        <v>0.03761715873495938</v>
+      </c>
+      <c r="G74">
+        <v>-0.002129185678971007</v>
+      </c>
+      <c r="H74">
+        <v>0.01931754164084685</v>
+      </c>
+      <c r="I74">
+        <v>0.03544866313993755</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2376001607906096</v>
+        <v>0.111029657883191</v>
       </c>
       <c r="C75">
-        <v>-0.1955413993457271</v>
+        <v>-0.2702604332745662</v>
       </c>
       <c r="D75">
-        <v>0.1041432373911715</v>
+        <v>-0.1339853256802749</v>
       </c>
       <c r="E75">
-        <v>-0.02186066582357023</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08764852544635485</v>
+      </c>
+      <c r="F75">
+        <v>-0.02916066718189686</v>
+      </c>
+      <c r="G75">
+        <v>0.09761711266191736</v>
+      </c>
+      <c r="H75">
+        <v>0.009498917251788429</v>
+      </c>
+      <c r="I75">
+        <v>0.01421314990199323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1420610431108207</v>
+        <v>0.0631234658442222</v>
       </c>
       <c r="C76">
-        <v>-0.1359764588416276</v>
+        <v>-0.1821095132790581</v>
       </c>
       <c r="D76">
-        <v>-0.0126103706620459</v>
+        <v>-0.03593699124176898</v>
       </c>
       <c r="E76">
-        <v>0.01280084348454508</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02264559879652417</v>
+      </c>
+      <c r="F76">
+        <v>0.004668082078730132</v>
+      </c>
+      <c r="G76">
+        <v>0.04449276903471364</v>
+      </c>
+      <c r="H76">
+        <v>-0.02120858744180319</v>
+      </c>
+      <c r="I76">
+        <v>0.008747602829095607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02155523506313</v>
+        <v>0.0003190954759455897</v>
       </c>
       <c r="C77">
-        <v>-0.06576581991043742</v>
+        <v>-0.1029590207049064</v>
       </c>
       <c r="D77">
-        <v>-0.005570594040607034</v>
+        <v>0.3068662682832918</v>
       </c>
       <c r="E77">
-        <v>0.2353605646086307</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8394640074726704</v>
+      </c>
+      <c r="F77">
+        <v>-0.2405292672238067</v>
+      </c>
+      <c r="G77">
+        <v>-0.2376586348846096</v>
+      </c>
+      <c r="H77">
+        <v>0.109219089945144</v>
+      </c>
+      <c r="I77">
+        <v>0.004856076899425083</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02738900317218329</v>
+        <v>0.01622665244007609</v>
       </c>
       <c r="C78">
-        <v>-0.06565786931902147</v>
+        <v>-0.08779081385752298</v>
       </c>
       <c r="D78">
-        <v>-0.1520650614469611</v>
+        <v>0.1262150705106552</v>
       </c>
       <c r="E78">
-        <v>0.04624612435975063</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06680152370004946</v>
+      </c>
+      <c r="F78">
+        <v>0.04665569684107197</v>
+      </c>
+      <c r="G78">
+        <v>0.03431562146941342</v>
+      </c>
+      <c r="H78">
+        <v>-0.01738788268910016</v>
+      </c>
+      <c r="I78">
+        <v>0.1298238107620407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09737723479369892</v>
+        <v>0.03519424391523403</v>
       </c>
       <c r="C79">
-        <v>-0.1725901156845777</v>
+        <v>-0.1904814387535048</v>
       </c>
       <c r="D79">
-        <v>0.08211073422363911</v>
+        <v>-0.07001686754931305</v>
       </c>
       <c r="E79">
-        <v>0.7928335703059053</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.0551004642348457</v>
+      </c>
+      <c r="F79">
+        <v>0.7677809848354464</v>
+      </c>
+      <c r="G79">
+        <v>-0.4780673356932477</v>
+      </c>
+      <c r="H79">
+        <v>0.2005061207105357</v>
+      </c>
+      <c r="I79">
+        <v>-0.0476619953914984</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.00516033769816136</v>
+        <v>0.005205086780469419</v>
       </c>
       <c r="C80">
-        <v>-0.04576886234567355</v>
+        <v>-0.04499377207247295</v>
       </c>
       <c r="D80">
-        <v>-0.05226163023381108</v>
+        <v>0.04222278151100215</v>
       </c>
       <c r="E80">
-        <v>-0.007003377662614934</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04217691797272231</v>
+      </c>
+      <c r="F80">
+        <v>0.007560097540519348</v>
+      </c>
+      <c r="G80">
+        <v>0.02504496978348475</v>
+      </c>
+      <c r="H80">
+        <v>-0.02057015222730177</v>
+      </c>
+      <c r="I80">
+        <v>0.07020291318156599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1212421592920468</v>
+        <v>0.04446859579380028</v>
       </c>
       <c r="C81">
-        <v>-0.1325791198640026</v>
+        <v>-0.1670722695492507</v>
       </c>
       <c r="D81">
-        <v>0.07312624965438282</v>
+        <v>-0.08115966538587709</v>
       </c>
       <c r="E81">
-        <v>0.06492562275502232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05191864022974958</v>
+      </c>
+      <c r="F81">
+        <v>0.06215166885156154</v>
+      </c>
+      <c r="G81">
+        <v>0.0604868721260789</v>
+      </c>
+      <c r="H81">
+        <v>-0.0587358618971978</v>
+      </c>
+      <c r="I81">
+        <v>0.03051472647499447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2575362726562519</v>
+        <v>0.0943178723364925</v>
       </c>
       <c r="C82">
-        <v>-0.2947755469773713</v>
+        <v>-0.3281130127376736</v>
       </c>
       <c r="D82">
-        <v>0.2038032544391645</v>
+        <v>-0.2329097319524298</v>
       </c>
       <c r="E82">
-        <v>-0.1348751851474166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.05324590315399121</v>
+      </c>
+      <c r="F82">
+        <v>-0.1036967204219061</v>
+      </c>
+      <c r="G82">
+        <v>0.11708495753751</v>
+      </c>
+      <c r="H82">
+        <v>-0.09269527756153305</v>
+      </c>
+      <c r="I82">
+        <v>0.02630819253560215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.006422981580692416</v>
+        <v>-0.01617566922083667</v>
       </c>
       <c r="C83">
-        <v>-0.05210162394017209</v>
+        <v>-0.02539123447734089</v>
       </c>
       <c r="D83">
-        <v>-0.01236157997939624</v>
+        <v>0.02344306271605447</v>
       </c>
       <c r="E83">
-        <v>0.05852595934230855</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07371625327994497</v>
+      </c>
+      <c r="F83">
+        <v>0.06906462141838121</v>
+      </c>
+      <c r="G83">
+        <v>0.09008268851803654</v>
+      </c>
+      <c r="H83">
+        <v>-0.02653777292467684</v>
+      </c>
+      <c r="I83">
+        <v>0.8269008329359644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0006680435200442218</v>
+        <v>-0.001077277355274771</v>
       </c>
       <c r="C84">
-        <v>0.001884788833909087</v>
+        <v>-0.01875349167751518</v>
       </c>
       <c r="D84">
-        <v>-0.004460444450452465</v>
+        <v>0.04780192971433926</v>
       </c>
       <c r="E84">
-        <v>0.0005243684891251532</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.001164671639605033</v>
+      </c>
+      <c r="F84">
+        <v>0.02905003362331367</v>
+      </c>
+      <c r="G84">
+        <v>0.05155867256927581</v>
+      </c>
+      <c r="H84">
+        <v>-0.006730055007951396</v>
+      </c>
+      <c r="I84">
+        <v>-0.06617761377666269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1432753588502712</v>
+        <v>0.05895537425533746</v>
       </c>
       <c r="C85">
-        <v>-0.136880907690925</v>
+        <v>-0.1841579736566261</v>
       </c>
       <c r="D85">
-        <v>0.03612260259083294</v>
+        <v>-0.08867296854614073</v>
       </c>
       <c r="E85">
-        <v>0.02682910268032601</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001390275655920074</v>
+      </c>
+      <c r="F85">
+        <v>0.0738998286618202</v>
+      </c>
+      <c r="G85">
+        <v>0.01990779371203501</v>
+      </c>
+      <c r="H85">
+        <v>0.01019988058503149</v>
+      </c>
+      <c r="I85">
+        <v>0.009820202271754491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0135788966147317</v>
+        <v>0.01183657654232184</v>
       </c>
       <c r="C86">
-        <v>-0.0137046706159643</v>
+        <v>-0.0328559285517003</v>
       </c>
       <c r="D86">
-        <v>-0.07613650772704092</v>
+        <v>0.1022809075013292</v>
       </c>
       <c r="E86">
-        <v>0.04972810066447674</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02346258215816098</v>
+      </c>
+      <c r="F86">
+        <v>-0.001785904714316752</v>
+      </c>
+      <c r="G86">
+        <v>-0.008093665641949147</v>
+      </c>
+      <c r="H86">
+        <v>-0.02481463089565113</v>
+      </c>
+      <c r="I86">
+        <v>0.03234755951185664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01960545509608066</v>
+        <v>0.01205154078680699</v>
       </c>
       <c r="C87">
-        <v>-0.02355680357116009</v>
+        <v>-0.05564140178800569</v>
       </c>
       <c r="D87">
-        <v>-0.131298894228977</v>
+        <v>0.145731057707673</v>
       </c>
       <c r="E87">
-        <v>0.05387049132839752</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.009271845242762632</v>
+      </c>
+      <c r="F87">
+        <v>0.04587493857985379</v>
+      </c>
+      <c r="G87">
+        <v>0.05993132157181261</v>
+      </c>
+      <c r="H87">
+        <v>-0.02510486585112849</v>
+      </c>
+      <c r="I87">
+        <v>0.04288550982834732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05516020665614994</v>
+        <v>0.03542438915926383</v>
       </c>
       <c r="C88">
-        <v>-0.04512584644066889</v>
+        <v>-0.06686384797674559</v>
       </c>
       <c r="D88">
-        <v>-0.02577787544624177</v>
+        <v>0.008605303405040921</v>
       </c>
       <c r="E88">
-        <v>0.02991190421705761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02465060173648709</v>
+      </c>
+      <c r="F88">
+        <v>0.01834337837918285</v>
+      </c>
+      <c r="G88">
+        <v>-0.003490215530972675</v>
+      </c>
+      <c r="H88">
+        <v>-0.01931656659155022</v>
+      </c>
+      <c r="I88">
+        <v>-0.03299767861062822</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3123705967667464</v>
+        <v>0.4068577866993655</v>
       </c>
       <c r="C89">
-        <v>0.3328264579230317</v>
+        <v>0.1586417247270395</v>
       </c>
       <c r="D89">
-        <v>-0.01754175803768981</v>
+        <v>0.0305591410417269</v>
       </c>
       <c r="E89">
-        <v>0.09339350018888953</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05510279127755031</v>
+      </c>
+      <c r="F89">
+        <v>0.06809189183555037</v>
+      </c>
+      <c r="G89">
+        <v>0.03699737222307118</v>
+      </c>
+      <c r="H89">
+        <v>-0.1216225703851716</v>
+      </c>
+      <c r="I89">
+        <v>0.05392616620021466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.248726960550274</v>
+        <v>0.3165573853958404</v>
       </c>
       <c r="C90">
-        <v>0.2448325161905126</v>
+        <v>0.1093331993994786</v>
       </c>
       <c r="D90">
-        <v>-0.03793829227773771</v>
+        <v>0.03115009796779043</v>
       </c>
       <c r="E90">
-        <v>-0.006187087595095632</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0123409310585613</v>
+      </c>
+      <c r="F90">
+        <v>-0.007087377965492349</v>
+      </c>
+      <c r="G90">
+        <v>0.06470779894153762</v>
+      </c>
+      <c r="H90">
+        <v>0.02859501895687842</v>
+      </c>
+      <c r="I90">
+        <v>0.04230885957895181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1590756477362336</v>
+        <v>0.0700015397747888</v>
       </c>
       <c r="C91">
-        <v>-0.1852648945559715</v>
+        <v>-0.2105519283031897</v>
       </c>
       <c r="D91">
-        <v>0.09764337002816936</v>
+        <v>-0.1087262688577529</v>
       </c>
       <c r="E91">
-        <v>0.09517768396829503</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06046168811850216</v>
+      </c>
+      <c r="F91">
+        <v>0.0723978862766103</v>
+      </c>
+      <c r="G91">
+        <v>0.006403593045597436</v>
+      </c>
+      <c r="H91">
+        <v>0.002189003495932945</v>
+      </c>
+      <c r="I91">
+        <v>0.04670088825460544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2370098732727366</v>
+        <v>0.3369857542459943</v>
       </c>
       <c r="C92">
-        <v>0.2657248356986892</v>
+        <v>0.1448633013391218</v>
       </c>
       <c r="D92">
-        <v>0.05916272469029518</v>
+        <v>-0.007322806716496189</v>
       </c>
       <c r="E92">
-        <v>0.05185644666494495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06865401631812323</v>
+      </c>
+      <c r="F92">
+        <v>0.02888545881689042</v>
+      </c>
+      <c r="G92">
+        <v>0.02952004912372932</v>
+      </c>
+      <c r="H92">
+        <v>-0.02082521862014112</v>
+      </c>
+      <c r="I92">
+        <v>-0.2532524041555216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2762806180041287</v>
+        <v>0.3350107158815064</v>
       </c>
       <c r="C93">
-        <v>0.2557773895890353</v>
+        <v>0.1166428218102383</v>
       </c>
       <c r="D93">
-        <v>-0.01370958617153135</v>
+        <v>-0.01885840924086753</v>
       </c>
       <c r="E93">
-        <v>0.00288189277615742</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02578618841014914</v>
+      </c>
+      <c r="F93">
+        <v>0.008003989883266449</v>
+      </c>
+      <c r="G93">
+        <v>-0.01875039205850189</v>
+      </c>
+      <c r="H93">
+        <v>0.0001863225564771798</v>
+      </c>
+      <c r="I93">
+        <v>-0.002707473810679222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3019621682043864</v>
+        <v>0.1336878722647592</v>
       </c>
       <c r="C94">
-        <v>-0.2692430385787619</v>
+        <v>-0.3593684447027766</v>
       </c>
       <c r="D94">
-        <v>0.3487156427551434</v>
+        <v>-0.3467015323945579</v>
       </c>
       <c r="E94">
-        <v>-0.2071612277399273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.05559125246648967</v>
+      </c>
+      <c r="F94">
+        <v>-0.09488449440215534</v>
+      </c>
+      <c r="G94">
+        <v>0.295635843489349</v>
+      </c>
+      <c r="H94">
+        <v>0.09397615872399384</v>
+      </c>
+      <c r="I94">
+        <v>-0.1374828582216301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01579405756485426</v>
+        <v>0.01906356893493852</v>
       </c>
       <c r="C95">
-        <v>-0.03847433369300264</v>
+        <v>-0.06193800240052694</v>
       </c>
       <c r="D95">
-        <v>-0.02124648548645721</v>
+        <v>0.1039793642837996</v>
       </c>
       <c r="E95">
-        <v>0.08842703590805878</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1551598253817638</v>
+      </c>
+      <c r="F95">
+        <v>-0.02527170859653798</v>
+      </c>
+      <c r="G95">
+        <v>-0.03419362231009584</v>
+      </c>
+      <c r="H95">
+        <v>-0.4117980260316297</v>
+      </c>
+      <c r="I95">
+        <v>-0.2093446807347556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001169369431776811</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0006493248367486197</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.001019626109421214</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.00330172121629719</v>
+      </c>
+      <c r="F97">
+        <v>4.009934383267174e-05</v>
+      </c>
+      <c r="G97">
+        <v>0.000447516373754867</v>
+      </c>
+      <c r="H97">
+        <v>-0.003613266828153457</v>
+      </c>
+      <c r="I97">
+        <v>-0.004336670170103013</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1456637748958845</v>
+        <v>0.1147582497860378</v>
       </c>
       <c r="C98">
-        <v>-0.08284763138287693</v>
+        <v>-0.1467953691837385</v>
       </c>
       <c r="D98">
-        <v>-0.1567454296945035</v>
+        <v>0.06810040514221831</v>
       </c>
       <c r="E98">
-        <v>-0.2004950191330161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2084434572703436</v>
+      </c>
+      <c r="F98">
+        <v>-0.2440987513003469</v>
+      </c>
+      <c r="G98">
+        <v>-0.29791535651178</v>
+      </c>
+      <c r="H98">
+        <v>0.1256170712996974</v>
+      </c>
+      <c r="I98">
+        <v>0.03912931499155711</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001468827603556918</v>
+        <v>-2.982989993411805e-05</v>
       </c>
       <c r="C101">
-        <v>-0.0203280679901616</v>
+        <v>-0.0313101955862627</v>
       </c>
       <c r="D101">
-        <v>-0.09810311845307444</v>
+        <v>0.09961626316309365</v>
       </c>
       <c r="E101">
-        <v>0.01564330671161494</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05438350272577229</v>
+      </c>
+      <c r="F101">
+        <v>0.03795119419571692</v>
+      </c>
+      <c r="G101">
+        <v>0.02259239325999848</v>
+      </c>
+      <c r="H101">
+        <v>-0.1294283767373692</v>
+      </c>
+      <c r="I101">
+        <v>-0.01552499358196917</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1071757153628515</v>
+        <v>0.03006090723424922</v>
       </c>
       <c r="C102">
-        <v>-0.1575613548371233</v>
+        <v>-0.1522513885571501</v>
       </c>
       <c r="D102">
-        <v>0.06360567754124588</v>
+        <v>-0.09486452176140164</v>
       </c>
       <c r="E102">
-        <v>-0.0499049534850545</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03289744872308439</v>
+      </c>
+      <c r="F102">
+        <v>-0.06098390480825263</v>
+      </c>
+      <c r="G102">
+        <v>0.007146922470754413</v>
+      </c>
+      <c r="H102">
+        <v>-0.05480244608006272</v>
+      </c>
+      <c r="I102">
+        <v>0.02753104837958196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
